--- a/updated_file.xlsx
+++ b/updated_file.xlsx
@@ -456,7 +456,7 @@
     <row r="1" ht="18.75" customHeight="1">
       <c r="A1" s="5" t="inlineStr">
         <is>
-          <t>网络空间安全学院 年级：2022级 专业：网络空间安全 课堂情况表（周一） 2023年11月28日</t>
+          <t>网络空间安全学院 年级：2022级 专业：网络空间安全 课堂情况表（周一） 2023年12月04日</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
     <row r="13" ht="18.75" customHeight="1">
       <c r="A13" s="5" t="inlineStr">
         <is>
-          <t>网络空间安全学院 年级：2022级 专业：网络空间安全 课堂情况表（周二） 2023年11月29日</t>
+          <t>网络空间安全学院 年级：2022级 专业：网络空间安全 课堂情况表（周二） 2023年12月05日</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
     <row r="25" ht="18.75" customHeight="1">
       <c r="A25" s="5" t="inlineStr">
         <is>
-          <t>网络空间安全学院 年级：2022级 专业：网络空间安全 课堂情况表（周三） 2023年11月30日</t>
+          <t>网络空间安全学院 年级：2022级 专业：网络空间安全 课堂情况表（周三） 2023年12月06日</t>
         </is>
       </c>
     </row>
@@ -798,7 +798,7 @@
     <row r="37" ht="18.75" customHeight="1">
       <c r="A37" s="5" t="inlineStr">
         <is>
-          <t>网络空间安全学院 年级：2022级 专业：网络空间安全 课堂情况表（周四） 2023年12月01日</t>
+          <t>网络空间安全学院 年级：2022级 专业：网络空间安全 课堂情况表（周四） 2023年12月07日</t>
         </is>
       </c>
     </row>
@@ -912,7 +912,7 @@
     <row r="49" ht="18.75" customHeight="1">
       <c r="A49" s="5" t="inlineStr">
         <is>
-          <t>网络空间安全学院 年级：2022级 专业：网络空间安全 课堂情况表（周五） 2023年12月02日</t>
+          <t>网络空间安全学院 年级：2022级 专业：网络空间安全 课堂情况表（周五） 2023年12月08日</t>
         </is>
       </c>
     </row>
